--- a/QuestionCard/KpRequest/excel/阅卷老师导入模板.xlsx
+++ b/QuestionCard/KpRequest/excel/阅卷老师导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="10095"/>
+    <workbookView windowWidth="13110" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>学校(必填)</t>
   </si>
@@ -35,13 +35,19 @@
     <t>手机号(必填)</t>
   </si>
   <si>
-    <t>老师姓名(选填)</t>
+    <t>老师姓名(必填)</t>
   </si>
   <si>
     <t>题组(必填)</t>
   </si>
   <si>
     <t>角色</t>
+  </si>
+  <si>
+    <t>胡林辉二校</t>
+  </si>
+  <si>
+    <t>老师记录1</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,19 +1232,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.05" customWidth="1"/>
-    <col min="2" max="2" width="14.2166666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.3833333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.05" customWidth="1"/>
-    <col min="5" max="5" width="5.73333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:5">
@@ -1259,26 +1265,43 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>111</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>12077889990</v>
       </c>
-      <c r="C2">
-        <v>33</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>12077889998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D51">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2 D3 D4">
+      <formula1>"4,8,9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2 E3 E4 E5:E51">
+      <formula1>"题组长,阅卷老师(默认),兼任"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5:D51">
       <formula1>"21,22"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E51">
-      <formula1>"题组长,阅卷老师(默认),兼任"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
